--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -1,17 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor16.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +181,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +197,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,413 +497,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor19.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target11.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target10.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor11.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor10.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor16.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -1,148 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>corrAns</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target16.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor16.jpg</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -197,6 +65,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -489,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,331 +433,815 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>corrAns</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor27.jpg</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor33.jpg</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor32.jpg</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor26.jpg</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor30.jpg</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor24.jpg</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor19.jpg</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor25.jpg</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor31.jpg</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor35.jpg</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor21.jpg</t>
+        </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
+        </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
+        </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
+        </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor34.jpg</t>
+        </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor22.jpg</t>
+        </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor36.jpg</t>
+        </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
+        </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
+        </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor37.jpg</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor23.jpg</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
+        </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
+        </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target39.jpg</t>
+        </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target11.jpg</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target10.jpg</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target38.jpg</t>
+        </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
+        </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target28.jpg</t>
+        </is>
       </c>
       <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target29.jpg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor40.jpg</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target27.jpg</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target33.jpg</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target32.jpg</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target26.jpg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target30.jpg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target24.jpg</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target25.jpg</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target31.jpg</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target35.jpg</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target21.jpg</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target34.jpg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target22.jpg</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target36.jpg</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target37.jpg</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target23.jpg</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor11.jpg</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor39.jpg</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor38.jpg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor10.jpg</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor28.jpg</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor29.jpg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target40.jpg</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor16.jpg</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -1,17 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>corrAns</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor16.jpg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,6 +301,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +317,6 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,813 +617,649 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>corrAns</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor27.jpg</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor33.jpg</t>
-        </is>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
-        </is>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
-        </is>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
-        </is>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor32.jpg</t>
-        </is>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor26.jpg</t>
-        </is>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor30.jpg</t>
-        </is>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor24.jpg</t>
-        </is>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
-        </is>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
-        </is>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
-        </is>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
-        </is>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor19.jpg</t>
-        </is>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor25.jpg</t>
-        </is>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor31.jpg</t>
-        </is>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor35.jpg</t>
-        </is>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor21.jpg</t>
-        </is>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
-        </is>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
-        </is>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
-        </is>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
-        </is>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor34.jpg</t>
-        </is>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor22.jpg</t>
-        </is>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor36.jpg</t>
-        </is>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor37.jpg</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor23.jpg</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
-        </is>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target39.jpg</t>
-        </is>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target11.jpg</t>
-        </is>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target10.jpg</t>
-        </is>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target38.jpg</t>
-        </is>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
-        </is>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target28.jpg</t>
-        </is>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target29.jpg</t>
-        </is>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
-        </is>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
-        </is>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
-        </is>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor40.jpg</t>
-        </is>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target27.jpg</t>
-        </is>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target33.jpg</t>
-        </is>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target32.jpg</t>
-        </is>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target26.jpg</t>
-        </is>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
-        </is>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target30.jpg</t>
-        </is>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target24.jpg</t>
-        </is>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target25.jpg</t>
-        </is>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target31.jpg</t>
-        </is>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
-        </is>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target35.jpg</t>
-        </is>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target21.jpg</t>
-        </is>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
-        </is>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target34.jpg</t>
-        </is>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target22.jpg</t>
-        </is>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target36.jpg</t>
-        </is>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target37.jpg</t>
-        </is>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target23.jpg</t>
-        </is>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
-        </is>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
-        </is>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor11.jpg</t>
-        </is>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor39.jpg</t>
-        </is>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
-        </is>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
-        </is>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor38.jpg</t>
-        </is>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor10.jpg</t>
-        </is>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor28.jpg</t>
-        </is>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
-        </is>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
-        </is>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
-        </is>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
-        </is>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor29.jpg</t>
-        </is>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
-        </is>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target40.jpg</t>
-        </is>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor16.jpg</t>
-        </is>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -32,12 +32,30 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target59.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target70.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target58.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
   </si>
   <si>
@@ -56,12 +74,24 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target66.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target67.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target73.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
   </si>
   <si>
@@ -83,9 +113,21 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target77.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target76.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
   </si>
   <si>
@@ -104,9 +146,27 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target60.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target61.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
   </si>
   <si>
@@ -119,12 +179,36 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor23.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor78.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor47.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target39.jpg</t>
   </si>
   <si>
@@ -137,6 +221,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target38.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor52.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor42.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
   </si>
   <si>
@@ -149,15 +245,48 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor55.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor54.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor40.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor59.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target27.jpg</t>
   </si>
   <si>
@@ -170,6 +299,21 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target26.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor58.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor66.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
   </si>
   <si>
@@ -188,6 +332,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor63.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target35.jpg</t>
   </si>
   <si>
@@ -200,6 +356,21 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target34.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor60.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor74.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target22.jpg</t>
   </si>
   <si>
@@ -212,9 +383,36 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target23.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor49.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target79.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
   </si>
   <si>
@@ -227,6 +425,18 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target52.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
   </si>
   <si>
@@ -242,12 +452,27 @@
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target42.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target80.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
   </si>
   <si>
@@ -255,6 +480,21 @@
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target55.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target54.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target40.jpg</t>
@@ -609,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +926,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -702,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -766,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -798,7 +1038,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -846,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -870,7 +1110,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +1118,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -910,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +1158,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -982,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1022,7 +1262,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1030,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1302,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1086,7 +1326,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1102,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1110,7 +1350,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1358,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1134,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1390,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1190,7 +1430,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1438,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1222,7 +1462,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1254,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1262,6 +1502,646 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -23,484 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target16.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/target40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block1/distractor16.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target59.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target58.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target60.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor52.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor55.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor54.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor65.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor71.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor59.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor58.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor70.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor64.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor72.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor66.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor67.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor73.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor77.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor63.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor62.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor76.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor60.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor74.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor75.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor61.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target78.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target51.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target79.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target53.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target52.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target56.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target57.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target80.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target55.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target69.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target68.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target54.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor16.jpg</t>
   </si>
 </sst>
 </file>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>image</t>
   </si>
@@ -23,484 +23,304 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor5.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target1.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor4.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor6.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target2.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target3.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor7.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target16.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor65.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor71.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor59.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target27.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target33.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target32.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target26.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor58.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor70.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor64.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor72.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor66.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target18.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target30.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target24.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target25.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target31.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target19.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor67.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor73.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor77.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor63.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target35.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target21.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target20.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target34.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor62.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor76.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor48.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor60.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor74.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target22.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target36.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target37.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target23.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor75.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor61.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor49.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor12.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target78.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target44.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target50.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target51.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target45.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target79.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor13.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor11.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor39.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target53.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target47.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target46.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target52.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor38.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor10.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor28.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor14.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target56.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target42.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target8.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target9.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target43.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target57.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target80.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor15.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor29.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor17.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target41.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target55.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target69.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target68.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target54.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/target40.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block1/distractor16.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor5.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target1.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor4.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor6.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target2.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target3.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor7.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target27.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target33.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target32.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target26.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target18.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target30.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target24.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target25.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target31.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target19.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target35.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target21.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target20.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target34.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor48.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target22.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target36.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target37.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target23.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor49.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor12.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target44.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target50.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target45.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor13.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor11.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor39.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target47.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target46.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor38.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor10.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor28.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor14.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target42.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target8.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target9.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target43.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor15.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor29.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor17.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target41.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/target40.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli_old/block1/distractor16.jpg</t>
   </si>
 </sst>
 </file>
@@ -849,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -918,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -926,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -934,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -942,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -950,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -958,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -966,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1006,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1014,7 +834,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1022,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1038,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1046,7 +866,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1086,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1094,7 +914,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1102,7 +922,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1118,7 +938,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1126,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1134,7 +954,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1142,7 +962,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1158,7 +978,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1166,7 +986,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1190,7 +1010,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1222,7 +1042,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1230,7 +1050,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1262,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1286,7 +1106,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1294,7 +1114,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1326,7 +1146,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1334,7 +1154,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1342,7 +1162,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1350,7 +1170,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1358,7 +1178,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1398,7 +1218,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1406,7 +1226,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1414,7 +1234,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1478,7 +1298,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1486,7 +1306,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1494,7 +1314,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1510,7 +1330,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1518,7 +1338,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1534,7 +1354,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1542,7 +1362,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1574,7 +1394,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1582,7 +1402,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1606,7 +1426,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1614,7 +1434,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1662,486 +1482,6 @@
         <v>101</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Stimuli/block1_stim_path.xlsx
+++ b/Stimuli/block1_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t>image</t>
   </si>
@@ -23,18 +23,57 @@
     <t>corrAns</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor146.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor152.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target215.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor27.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor33.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target201.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor185.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target229.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor191.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor3.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor218.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor230.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target188.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor224.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target59.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target163.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target177.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target7.jpg</t>
   </si>
   <si>
@@ -53,33 +92,108 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target64.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target176.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target162.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target58.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor225.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target189.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor231.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor219.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor2.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor190.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target228.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor184.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor32.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target200.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target214.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor26.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor147.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor179.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor151.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target202.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor30.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor24.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target216.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor192.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor18.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor186.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target99.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor227.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor233.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target174.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target160.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target72.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target148.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target66.jpg</t>
   </si>
   <si>
@@ -92,9 +206,24 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target5.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target149.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target73.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target161.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target175.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor232.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor226.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target98.jpg</t>
   </si>
   <si>
@@ -104,21 +233,69 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor19.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor187.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor193.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor25.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target217.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target203.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor31.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor150.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor178.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor154.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor168.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor197.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor183.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor35.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target207.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target213.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor21.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor5.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor222.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor236.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target88.jpg</t>
   </si>
   <si>
@@ -128,36 +305,114 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target1.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target159.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target63.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target171.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target165.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target164.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target170.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target62.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target158.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target76.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target89.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor237.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor223.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor4.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target212.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor20.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor34.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target206.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor182.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor196.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor169.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor157.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor180.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor194.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target238.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor22.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target210.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target204.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor36.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor6.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target199.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor235.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor221.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor209.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target60.jpg</t>
   </si>
   <si>
@@ -167,12 +422,24 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target74.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target166.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target172.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target48.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target49.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target173.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target167.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target75.jpg</t>
   </si>
   <si>
@@ -182,21 +449,63 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target3.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor208.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor220.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor234.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target198.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor7.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target205.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor37.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor23.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target211.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target239.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor195.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor181.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor156.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor142.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor87.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor119.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor93.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor125.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor131.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor44.jpg</t>
   </si>
   <si>
@@ -206,15 +515,36 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor78.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor247.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target100.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target114.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target128.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target12.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target13.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target129.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target115.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target101.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor246.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor79.jpg</t>
   </si>
   <si>
@@ -224,24 +554,54 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor45.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor124.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor92.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor86.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor118.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor90.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor84.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor132.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor126.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor53.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor47.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target249.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor244.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor250.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target117.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target103.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target39.jpg</t>
   </si>
   <si>
@@ -254,18 +614,42 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target38.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target102.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target116.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor245.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target248.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor46.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor52.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor133.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor85.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor91.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor137.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor123.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor95.jpg</t>
   </si>
   <si>
@@ -278,18 +662,36 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor42.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor241.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target14.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target28.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target112.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target106.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target107.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target113.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target29.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target15.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor240.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor43.jpg</t>
   </si>
   <si>
@@ -302,12 +704,27 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor94.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor122.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor136.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor120.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor134.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor82.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor96.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor108.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor69.jpg</t>
   </si>
   <si>
@@ -317,12 +734,36 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor55.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor242.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target139.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target17.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target111.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target110.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target104.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target16.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor243.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor54.jpg</t>
   </si>
   <si>
@@ -335,51 +776,117 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor97.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor109.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor83.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor135.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor138.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor104.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor110.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor65.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target243.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor71.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor59.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target121.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target135.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target27.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target33.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target109.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target108.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target32.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target26.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target134.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target120.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor58.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target242.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor70.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor64.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor111.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor105.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor139.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor113.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor107.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor99.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor72.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target240.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor66.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target136.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target18.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target122.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target30.jpg</t>
   </si>
   <si>
@@ -392,48 +899,111 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target31.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target123.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target19.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target137.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor67.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor73.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target241.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor106.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor98.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor112.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor116.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor88.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor102.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target245.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor77.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor63.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor248.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target35.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target21.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target133.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target127.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target126.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target132.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target20.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target34.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor249.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor62.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target250.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target244.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor76.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor103.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor117.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor89.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor101.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor115.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor129.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor48.jpg</t>
   </si>
   <si>
@@ -443,42 +1013,111 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor74.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target246.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target118.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target22.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target36.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target124.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target130.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target131.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target125.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target37.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target23.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target119.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor75.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target247.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor61.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor49.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor128.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor114.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor100.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor167.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor173.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor198.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target234.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor12.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target220.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target208.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target181.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target195.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor239.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor211.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target87.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target93.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor205.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target142.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target78.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target156.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target44.jpg</t>
   </si>
   <si>
@@ -491,33 +1130,108 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target45.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target157.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target79.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target143.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor204.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target92.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target86.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor210.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor238.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target194.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target180.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target209.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor13.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target221.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target235.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor199.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor172.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor166.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor158.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor170.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor164.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target223.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor11.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target237.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor39.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor9.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target196.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target182.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target90.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor206.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor212.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target84.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target155.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target141.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target169.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target53.jpg</t>
   </si>
   <si>
@@ -530,97 +1244,283 @@
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target52.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target168.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target140.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target154.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target85.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor213.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor207.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target91.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target183.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target197.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor8.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor38.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target236.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target222.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor10.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor165.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor171.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor159.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor175.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor161.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor149.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor28.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor14.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target226.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target232.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target95.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor203.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor217.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target81.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target193.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target187.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target56.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target42.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target178.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target150.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target8.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target144.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target145.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target151.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target9.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target179.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target43.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target57.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target186.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target192.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target80.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor216.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor202.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target94.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target233.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor15.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target227.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor29.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor148.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor160.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor174.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor162.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor176.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target219.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target231.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor189.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target225.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor17.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor214.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target82.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target96.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor200.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target184.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor228.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target190.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target41.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target55.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target147.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target69.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target153.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target152.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target68.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target146.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target54.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target40.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target191.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor229.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target185.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor201.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target97.jpg</t>
   </si>
   <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target83.jpg</t>
   </si>
   <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor215.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target224.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor188.jpg</t>
+  </si>
+  <si>
     <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor16.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target230.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/target218.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor177.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Github/explainableAI_script/Stimuli/block1/distractor163.jpg</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1014,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1022,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1038,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1054,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1062,7 +1962,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1070,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1086,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1102,7 +2002,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1110,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1118,7 +2018,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1190,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1206,7 +2106,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1254,7 +2154,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1262,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1286,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1294,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1334,7 +2234,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1350,7 +2250,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1366,7 +2266,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1374,7 +2274,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1382,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1398,7 +2298,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1406,7 +2306,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1414,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1422,7 +2322,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1430,7 +2330,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1438,7 +2338,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1446,7 +2346,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1454,7 +2354,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1462,7 +2362,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1470,7 +2370,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1502,7 +2402,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1526,7 +2426,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1590,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1598,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1686,7 +2586,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1694,7 +2594,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1718,7 +2618,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1726,7 +2626,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1734,7 +2634,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1742,7 +2642,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1750,7 +2650,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1758,7 +2658,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1766,7 +2666,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1790,7 +2690,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1798,7 +2698,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1806,7 +2706,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1814,7 +2714,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1846,7 +2746,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1854,7 +2754,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1862,7 +2762,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1878,7 +2778,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1934,7 +2834,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1942,7 +2842,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1958,7 +2858,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1998,7 +2898,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2062,7 +2962,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2070,7 +2970,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2078,7 +2978,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2086,7 +2986,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2094,7 +2994,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2102,7 +3002,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2126,7 +3026,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2134,7 +3034,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2150,7 +3050,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2166,7 +3066,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2182,7 +3082,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2206,7 +3106,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2214,7 +3114,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2222,7 +3122,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2230,7 +3130,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2238,7 +3138,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2246,7 +3146,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2254,7 +3154,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2294,7 +3194,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2302,7 +3202,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2358,7 +3258,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2366,7 +3266,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2398,7 +3298,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2406,7 +3306,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2414,7 +3314,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2422,7 +3322,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2430,7 +3330,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2438,7 +3338,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2446,7 +3346,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2454,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2462,7 +3362,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2470,7 +3370,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2494,7 +3394,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2502,7 +3402,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2510,7 +3410,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2582,6 +3482,2406 @@
         <v>201</v>
       </c>
       <c r="B201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" t="n">
         <v>0</v>
       </c>
     </row>
